--- a/Casos de prueba/TC-6.xlsx
+++ b/Casos de prueba/TC-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\UADE\Testing de aplicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camis\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B268DE9D-B398-43D0-95EB-26CF624A5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D3E83A-5929-422D-81FC-0661CD838790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="7500" windowHeight="7680" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Crear_cuenta.2" sheetId="2" r:id="rId1"/>
@@ -637,7 +637,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -744,27 +744,78 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,67 +828,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E2B85A74-63EF-4999-8841-C3A521468E5F}"/>
     <cellStyle name="Note 2" xfId="3" xr:uid="{7E18696E-6330-45FD-AAD1-7783A9330B8D}"/>
@@ -856,7 +850,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1155,17 +1149,17 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.26953125" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1175,12 +1169,12 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="51"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1188,19 +1182,19 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="30" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1207,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1224,7 +1218,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="42" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1248,159 +1242,159 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="37">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D6" s="36">
         <v>1</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>2</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>3</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>4</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>3</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>5</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>4</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>6</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="37">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D12" s="36">
         <v>7</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="37">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D13" s="36">
         <v>8</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="37">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D14" s="36">
         <v>9</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="37">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D15" s="36">
         <v>10</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D16" s="37"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D17" s="37"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D18" s="37"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D19" s="37"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D20" s="37"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="33"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-    </row>
-    <row r="24" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="16" t="s">
         <v>17</v>
       </c>
@@ -1408,22 +1402,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="65"/>
-    </row>
-    <row r="26" spans="1:14" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="18" t="s">
         <v>26</v>
       </c>
@@ -1435,62 +1429,62 @@
         <v>28</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="47" t="s">
+      <c r="H26" s="55"/>
+      <c r="I26" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="47" t="s">
+      <c r="J26" s="55"/>
+      <c r="K26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="48"/>
-      <c r="M26" s="47" t="s">
+      <c r="L26" s="55"/>
+      <c r="M26" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="48"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="55"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="24">
         <v>1</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="G27" s="47" t="s">
+      <c r="E27" s="57"/>
+      <c r="G27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="55"/>
+      <c r="I27" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="48"/>
-    </row>
-    <row r="28" spans="1:14" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="55"/>
+    </row>
+    <row r="28" spans="1:14" ht="78.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24">
         <v>2</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="57"/>
       <c r="G28" s="23" t="s">
         <v>29</v>
       </c>
@@ -1516,16 +1510,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="24">
         <v>3</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
       <c r="G29" s="25" t="s">
         <v>33</v>
       </c>
@@ -1549,16 +1543,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
         <v>4</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
       <c r="G30" s="25" t="s">
         <v>33</v>
       </c>
@@ -1582,18 +1576,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="24">
         <v>5</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="42"/>
+      <c r="E31" s="57"/>
       <c r="G31" s="25" t="s">
         <v>33</v>
       </c>
@@ -1617,14 +1611,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="24">
         <v>6</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
       <c r="G32" s="26"/>
       <c r="H32" s="14"/>
       <c r="I32" s="26"/>
@@ -1634,7 +1628,7 @@
       <c r="M32" s="26"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G33" s="26"/>
       <c r="H33" s="14"/>
       <c r="I33" s="26"/>
@@ -1644,7 +1638,7 @@
       <c r="M33" s="26"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G34" s="26"/>
       <c r="H34" s="14"/>
       <c r="I34" s="26"/>
@@ -1654,14 +1648,14 @@
       <c r="M34" s="26"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="35"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G36" s="27" t="s">
         <v>37</v>
       </c>
@@ -1679,7 +1673,7 @@
       </c>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="91" x14ac:dyDescent="0.35">
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28" t="s">
@@ -1691,7 +1685,7 @@
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -1701,7 +1695,7 @@
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
@@ -1711,7 +1705,7 @@
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
@@ -1721,7 +1715,7 @@
       <c r="M40" s="28"/>
       <c r="N40" s="28"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
@@ -1733,12 +1727,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
@@ -1748,17 +1747,12 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:L27"/>
     <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/Casos de prueba/TC-6.xlsx
+++ b/Casos de prueba/TC-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\UADE\Testing de aplicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B268DE9D-B398-43D0-95EB-26CF624A5B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1403EA1B-6E4D-403E-9D30-67E96F518DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="7500" windowHeight="7680" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Crear_cuenta.2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>As Expected</t>
-  </si>
-  <si>
-    <t>Not executed</t>
   </si>
   <si>
     <t>Credential can be entered</t>
@@ -637,7 +634,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -714,9 +711,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,15 +750,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,62 +828,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1155,7 +1161,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,6 +1169,11 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1170,15 +1181,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="51"/>
+      <c r="D1" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1188,23 +1199,23 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="52"/>
+      <c r="D2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>6.1</v>
       </c>
       <c r="F3" s="6"/>
@@ -1229,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="11" t="s">
@@ -1249,11 +1260,11 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>1</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>41</v>
+      <c r="E6" s="35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1263,11 +1274,11 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>2</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>42</v>
+      <c r="E7" s="35" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
@@ -1277,10 +1288,10 @@
       <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>3</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1289,118 +1300,118 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="37">
+        <v>39</v>
+      </c>
+      <c r="D9" s="36">
         <v>4</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E9" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>3</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>5</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E10" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>4</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>6</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>7</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="36">
+        <v>8</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="37">
-        <v>8</v>
-      </c>
-      <c r="E13" s="36" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="36">
+        <v>9</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="37">
-        <v>9</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>10</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>58</v>
+      <c r="E15" s="35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="B22" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="62"/>
+      <c r="B24" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="54"/>
       <c r="D24" s="16" t="s">
         <v>17</v>
       </c>
@@ -1409,21 +1420,21 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="65"/>
-    </row>
-    <row r="26" spans="1:14" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>26</v>
       </c>
@@ -1435,62 +1446,62 @@
         <v>28</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="47" t="s">
+      <c r="H26" s="56"/>
+      <c r="I26" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="47" t="s">
+      <c r="J26" s="56"/>
+      <c r="K26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="48"/>
-      <c r="M26" s="47" t="s">
+      <c r="L26" s="56"/>
+      <c r="M26" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="48"/>
+      <c r="N26" s="56"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>1</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="42"/>
-      <c r="G27" s="47" t="s">
+      <c r="E27" s="58"/>
+      <c r="G27" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47" t="s">
+      <c r="H27" s="56"/>
+      <c r="I27" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="47" t="s">
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="48"/>
+      <c r="N27" s="56"/>
     </row>
     <row r="28" spans="1:14" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>2</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="42"/>
+      <c r="B28" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="58"/>
       <c r="G28" s="23" t="s">
         <v>29</v>
       </c>
@@ -1516,16 +1527,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>3</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
+      <c r="B29" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
       <c r="G29" s="25" t="s">
         <v>33</v>
       </c>
@@ -1546,19 +1557,19 @@
       </c>
       <c r="M29" s="25"/>
       <c r="N29" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>4</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
+      <c r="B30" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
       <c r="G30" s="25" t="s">
         <v>33</v>
       </c>
@@ -1579,166 +1590,171 @@
       </c>
       <c r="M30" s="25"/>
       <c r="N30" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>5</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41" t="s">
+      <c r="B31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="G31" s="25" t="s">
+      <c r="C31" s="60"/>
+      <c r="D31" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="58"/>
+      <c r="G31" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K31" s="25" t="s">
+      <c r="J31" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L31" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="15" t="s">
-        <v>34</v>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>6</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="14"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G33" s="26"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="14"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G34" s="26"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="14"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="26"/>
+    </row>
+    <row r="37" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="N36" s="27"/>
-    </row>
-    <row r="37" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
@@ -1748,17 +1764,12 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:L27"/>
     <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/Casos de prueba/TC-6.xlsx
+++ b/Casos de prueba/TC-6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1403EA1B-6E4D-403E-9D30-67E96F518DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A033F91D-9AFC-439D-8FA8-86E4063C9923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t>High</t>
   </si>
   <si>
-    <t xml:space="preserve">18 &lt;= user </t>
-  </si>
-  <si>
     <t>First name: cami</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>TC-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 &gt;= user </t>
   </si>
 </sst>
 </file>
@@ -750,6 +750,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,48 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753BCD2C-D1E9-43CA-8B7A-EB7A177E68D9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,15 +1181,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="43"/>
+      <c r="D1" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1199,19 +1199,19 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="44"/>
+      <c r="D2" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="46"/>
+      <c r="B3" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="60"/>
       <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
@@ -1300,13 +1300,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D9" s="36">
         <v>4</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1390,28 +1390,28 @@
       <c r="A22" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
+      <c r="B22" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="54"/>
+      <c r="B24" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="68"/>
       <c r="D24" s="16" t="s">
         <v>17</v>
       </c>
@@ -1423,16 +1423,16 @@
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="41"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="55"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
@@ -1446,62 +1446,62 @@
         <v>28</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="55" t="s">
+      <c r="H26" s="51"/>
+      <c r="I26" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="55" t="s">
+      <c r="J26" s="51"/>
+      <c r="K26" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="55" t="s">
+      <c r="L26" s="51"/>
+      <c r="M26" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="56"/>
+      <c r="N26" s="51"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>1</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="57" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="G27" s="55" t="s">
+      <c r="E27" s="45"/>
+      <c r="G27" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="55" t="s">
+      <c r="H27" s="51"/>
+      <c r="I27" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="55" t="s">
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="56"/>
-    </row>
-    <row r="28" spans="1:14" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="51"/>
+    </row>
+    <row r="28" spans="1:14" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>2</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="57" t="s">
+      <c r="B28" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="58"/>
+      <c r="E28" s="45"/>
       <c r="G28" s="23" t="s">
         <v>29</v>
       </c>
@@ -1531,12 +1531,12 @@
       <c r="A29" s="24">
         <v>3</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
+      <c r="B29" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
       <c r="G29" s="25" t="s">
         <v>33</v>
       </c>
@@ -1564,12 +1564,12 @@
       <c r="A30" s="24">
         <v>4</v>
       </c>
-      <c r="B30" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
+      <c r="B30" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
       <c r="G30" s="25" t="s">
         <v>33</v>
       </c>
@@ -1597,34 +1597,34 @@
       <c r="A31" s="24">
         <v>5</v>
       </c>
-      <c r="B31" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="57" t="s">
+      <c r="B31" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="G31" s="65" t="s">
+      <c r="C31" s="43"/>
+      <c r="D31" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="G31" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="65" t="s">
+      <c r="I31" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="66" t="s">
+      <c r="J31" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="65" t="s">
+      <c r="K31" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="66" t="s">
+      <c r="L31" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M31" s="65"/>
-      <c r="N31" s="66" t="s">
+      <c r="M31" s="39"/>
+      <c r="N31" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1632,43 +1632,43 @@
       <c r="A32" s="24">
         <v>6</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="N36" s="26"/>
     </row>
-    <row r="37" spans="1:14" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27" t="s">
@@ -1744,17 +1744,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
@@ -1764,12 +1759,17 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:L27"/>
     <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/Casos de prueba/TC-6.xlsx
+++ b/Casos de prueba/TC-6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A033F91D-9AFC-439D-8FA8-86E4063C9923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB6ED20-4AA3-49EA-AD3A-DF7FA01B7879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -107,15 +107,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
-    <t>Tester: Jane Williams</t>
-  </si>
-  <si>
-    <t>Tester:</t>
-  </si>
-  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>Credential can be entered</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Defects Created</t>
   </si>
   <si>
@@ -213,13 +201,28 @@
   </si>
   <si>
     <t xml:space="preserve">18 &gt;= user </t>
+  </si>
+  <si>
+    <t>Tester: Camila Sturlesi</t>
+  </si>
+  <si>
+    <t>Tester: Martina Degui</t>
+  </si>
+  <si>
+    <t>Tester: Sebastian Deina</t>
+  </si>
+  <si>
+    <t>Tester:  Lucas Argerich</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,14 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -342,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -626,6 +621,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -634,7 +642,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -684,37 +692,34 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -762,15 +767,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,62 +839,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1160,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753BCD2C-D1E9-43CA-8B7A-EB7A177E68D9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,15 +1183,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="57"/>
+      <c r="D1" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1199,23 +1201,23 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="45"/>
+    </row>
+    <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="58"/>
-    </row>
-    <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>6.1</v>
       </c>
       <c r="F3" s="6"/>
@@ -1240,7 +1242,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="11" t="s">
@@ -1260,11 +1262,11 @@
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>39</v>
+      <c r="E6" s="34" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1274,11 +1276,11 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>2</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>40</v>
+      <c r="E7" s="34" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
@@ -1288,10 +1290,10 @@
       <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>3</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1300,13 +1302,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="36">
+        <v>54</v>
+      </c>
+      <c r="D9" s="35">
         <v>4</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>41</v>
+      <c r="E9" s="34" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1314,11 +1316,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>5</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>51</v>
+      <c r="E10" s="34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1326,92 +1328,92 @@
         <v>4</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <v>6</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>7</v>
       </c>
-      <c r="E12" s="35" t="s">
-        <v>42</v>
+      <c r="E12" s="34" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="36">
+      <c r="D13" s="35">
         <v>8</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>43</v>
+      <c r="E13" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <v>9</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>44</v>
+      <c r="E14" s="34" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>10</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>56</v>
+      <c r="E15" s="34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
+      <c r="B22" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
     </row>
     <row r="24" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="68"/>
+      <c r="B24" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="55"/>
       <c r="D24" s="16" t="s">
         <v>17</v>
       </c>
@@ -1419,143 +1421,147 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+    <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="55"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="57"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="50" t="s">
+      <c r="H26" s="57"/>
+      <c r="I26" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="50" t="s">
+      <c r="J26" s="57"/>
+      <c r="K26" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="50" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="51"/>
+      <c r="N26" s="57"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>1</v>
       </c>
-      <c r="B27" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="G27" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="51"/>
+      <c r="B27" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="G27" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="60"/>
+      <c r="K27" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="57"/>
+      <c r="M27" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="57"/>
     </row>
     <row r="28" spans="1:14" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>2</v>
       </c>
-      <c r="B28" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="45"/>
+      <c r="B28" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="59"/>
       <c r="G28" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>3</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="G29" s="25" t="s">
-        <v>33</v>
+      <c r="B29" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="G29" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="25" t="s">
-        <v>33</v>
+      <c r="I29" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="25" t="s">
-        <v>33</v>
+      <c r="K29" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="25"/>
+      <c r="M29" s="42" t="s">
+        <v>30</v>
+      </c>
       <c r="N29" s="15" t="s">
         <v>11</v>
       </c>
@@ -1564,31 +1570,33 @@
       <c r="A30" s="24">
         <v>4</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="G30" s="25" t="s">
-        <v>33</v>
+      <c r="B30" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="G30" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="25" t="s">
-        <v>33</v>
+      <c r="I30" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="25" t="s">
-        <v>33</v>
+      <c r="K30" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M30" s="25"/>
+      <c r="M30" s="42" t="s">
+        <v>30</v>
+      </c>
       <c r="N30" s="15" t="s">
         <v>11</v>
       </c>
@@ -1597,34 +1605,36 @@
       <c r="A31" s="24">
         <v>5</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="G31" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="40" t="s">
+      <c r="B31" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="G31" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="40" t="s">
+      <c r="I31" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40" t="s">
+      <c r="M31" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" s="39" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1632,124 +1642,129 @@
       <c r="A32" s="24">
         <v>6</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N36" s="26"/>
+      <c r="G36" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="25"/>
     </row>
     <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
+  <mergeCells count="27">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
@@ -1757,19 +1772,15 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:L27"/>
     <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/Casos de prueba/TC-6.xlsx
+++ b/Casos de prueba/TC-6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB6ED20-4AA3-49EA-AD3A-DF7FA01B7879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3350AD97-6F27-4641-8D40-CE69557FAA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
+    <workbookView xWindow="13065" yWindow="-120" windowWidth="7500" windowHeight="7680" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Crear_cuenta.2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -167,33 +167,15 @@
     <t>Jane Williams</t>
   </si>
   <si>
-    <t>Create acount</t>
-  </si>
-  <si>
-    <t>complete personal information</t>
-  </si>
-  <si>
-    <t>register user</t>
-  </si>
-  <si>
     <t>Review comments from Jane incorprated in version 6.1</t>
   </si>
   <si>
     <t>Date of birth: 11/10/2005</t>
   </si>
   <si>
-    <t>Verify customer registration after entering an invalid date</t>
-  </si>
-  <si>
     <t xml:space="preserve">name, last name, email, password, birth date, address, city, state, postal code, country. </t>
   </si>
   <si>
-    <t>Account cannot be created, user must be &gt;= 18 years old</t>
-  </si>
-  <si>
-    <t>Expected result of user registration</t>
-  </si>
-  <si>
     <t>country us</t>
   </si>
   <si>
@@ -216,6 +198,30 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>enter with their account</t>
+  </si>
+  <si>
+    <t>go to "hello"</t>
+  </si>
+  <si>
+    <t>"Your perfile"</t>
+  </si>
+  <si>
+    <t>"edit perfil"</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>click on save</t>
+  </si>
+  <si>
+    <t>Verify customer can modify their address</t>
+  </si>
+  <si>
+    <t>edit your address</t>
   </si>
 </sst>
 </file>
@@ -770,6 +776,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -808,39 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1162,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753BCD2C-D1E9-43CA-8B7A-EB7A177E68D9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,15 +1189,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1201,19 +1207,19 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="47"/>
+      <c r="B3" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="35">
         <v>4</v>
@@ -1320,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1365,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1392,28 +1398,28 @@
       <c r="A22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
+      <c r="B22" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="55"/>
+      <c r="B24" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="66"/>
       <c r="D24" s="16" t="s">
         <v>17</v>
       </c>
@@ -1425,16 +1431,16 @@
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="56" t="s">
+      <c r="G25" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="57"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="51"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
@@ -1448,64 +1454,64 @@
         <v>25</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="56" t="s">
+      <c r="H26" s="51"/>
+      <c r="I26" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="56" t="s">
+      <c r="J26" s="51"/>
+      <c r="K26" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="56" t="s">
+      <c r="L26" s="51"/>
+      <c r="M26" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="57"/>
+      <c r="N26" s="51"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>1</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="58" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="G27" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="N27" s="57"/>
+      <c r="E27" s="45"/>
+      <c r="G27" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="51"/>
+      <c r="I27" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="51"/>
+      <c r="M27" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:14" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>2</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="58" t="s">
+      <c r="B28" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="59"/>
+      <c r="E28" s="45"/>
       <c r="G28" s="23" t="s">
         <v>26</v>
       </c>
@@ -1535,12 +1541,14 @@
       <c r="A29" s="24">
         <v>3</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
+      <c r="B29" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="45"/>
       <c r="G29" s="42" t="s">
         <v>30</v>
       </c>
@@ -1570,12 +1578,14 @@
       <c r="A30" s="24">
         <v>4</v>
       </c>
-      <c r="B30" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
+      <c r="B30" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="45"/>
       <c r="G30" s="42" t="s">
         <v>30</v>
       </c>
@@ -1605,14 +1615,14 @@
       <c r="A31" s="24">
         <v>5</v>
       </c>
-      <c r="B31" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="59"/>
+      <c r="B31" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="45"/>
       <c r="G31" s="38" t="s">
         <v>30</v>
       </c>
@@ -1623,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K31" s="38" t="s">
         <v>30</v>
@@ -1642,10 +1652,14 @@
       <c r="A32" s="24">
         <v>6</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
+      <c r="B32" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="48"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
@@ -1677,8 +1691,8 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
     </row>
@@ -1754,17 +1768,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
@@ -1775,12 +1784,17 @@
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/Casos de prueba/TC-6.xlsx
+++ b/Casos de prueba/TC-6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3350AD97-6F27-4641-8D40-CE69557FAA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8009EEC-360E-4419-88FD-654953B29CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13065" yWindow="-120" windowWidth="7500" windowHeight="7680" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Crear_cuenta.2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Automation Status</t>
   </si>
   <si>
-    <t>Not Automated</t>
-  </si>
-  <si>
     <t>Regression 1</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Defects Created</t>
   </si>
   <si>
-    <t>DF-001: Home page is not displayed upon logging in</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -222,6 +216,9 @@
   </si>
   <si>
     <t>edit your address</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automated</t>
   </si>
 </sst>
 </file>
@@ -776,15 +773,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,57 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1168,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753BCD2C-D1E9-43CA-8B7A-EB7A177E68D9}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,15 +1186,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="D1" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1207,19 +1204,19 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="56"/>
+      <c r="D2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="50"/>
       <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="11" t="s">
@@ -1272,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1286,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
@@ -1308,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="35">
         <v>4</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1326,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1347,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1355,7 +1352,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1363,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1371,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1398,177 +1395,177 @@
       <c r="A22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
+      <c r="B22" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="66"/>
+      <c r="B24" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="58"/>
       <c r="D24" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="51"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="50" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="50" t="s">
+      <c r="L26" s="45"/>
+      <c r="M26" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="51"/>
+      <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>1</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="G27" s="50" t="s">
+      <c r="E27" s="60"/>
+      <c r="G27" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="45"/>
+      <c r="I27" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="44"/>
+      <c r="K27" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="50" t="s">
+      <c r="L27" s="45"/>
+      <c r="M27" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="51"/>
+      <c r="N27" s="45"/>
     </row>
     <row r="28" spans="1:14" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>2</v>
       </c>
-      <c r="B28" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="45"/>
+      <c r="B28" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="60"/>
       <c r="G28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="23" t="s">
-        <v>27</v>
-      </c>
       <c r="I28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="23" t="s">
-        <v>27</v>
-      </c>
       <c r="K28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L28" s="23" t="s">
-        <v>27</v>
-      </c>
       <c r="M28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>3</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="45"/>
+      <c r="B29" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="60"/>
       <c r="G29" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K29" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M29" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N29" s="15" t="s">
         <v>11</v>
@@ -1578,34 +1575,34 @@
       <c r="A30" s="24">
         <v>4</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="60"/>
       <c r="G30" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K30" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M30" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>11</v>
@@ -1615,34 +1612,34 @@
       <c r="A31" s="24">
         <v>5</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="45"/>
+      <c r="B31" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="60"/>
       <c r="G31" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K31" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L31" s="39" t="s">
         <v>11</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31" s="39" t="s">
         <v>11</v>
@@ -1652,14 +1649,14 @@
       <c r="A32" s="24">
         <v>6</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47" t="s">
+      <c r="B32" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="48"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="65"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
@@ -1691,35 +1688,33 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G36" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L36" s="25"/>
       <c r="M36" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N36" s="25"/>
     </row>
-    <row r="37" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
-      <c r="I37" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
@@ -1768,12 +1763,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G25:N25"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="K26:L26"/>
@@ -1784,17 +1784,12 @@
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/Casos de prueba/TC-6.xlsx
+++ b/Casos de prueba/TC-6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8009EEC-360E-4419-88FD-654953B29CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDCCE9-E1C0-45D5-8A0F-7DE40B5BF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Email: cjonson@uade.edu.ar</t>
-  </si>
-  <si>
-    <t>Address: 123 Central Park</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -137,24 +131,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>First name: cami</t>
-  </si>
-  <si>
-    <t>Last name: jonson</t>
-  </si>
-  <si>
-    <t>Password: 1q2w3e4r5t</t>
-  </si>
-  <si>
-    <t>City: NY</t>
-  </si>
-  <si>
-    <t>State: NY</t>
-  </si>
-  <si>
-    <t>Postal Code: 10001</t>
-  </si>
-  <si>
     <t>Test Registration Functionality in Banking</t>
   </si>
   <si>
@@ -164,21 +140,12 @@
     <t>Review comments from Jane incorprated in version 6.1</t>
   </si>
   <si>
-    <t>Date of birth: 11/10/2005</t>
-  </si>
-  <si>
     <t xml:space="preserve">name, last name, email, password, birth date, address, city, state, postal code, country. </t>
   </si>
   <si>
-    <t>country us</t>
-  </si>
-  <si>
     <t>TC-06</t>
   </si>
   <si>
-    <t xml:space="preserve">18 &gt;= user </t>
-  </si>
-  <si>
     <t>Tester: Camila Sturlesi</t>
   </si>
   <si>
@@ -219,6 +186,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Automated</t>
+  </si>
+  <si>
+    <t>email: sample@sample.com</t>
+  </si>
+  <si>
+    <t>password: sample</t>
+  </si>
+  <si>
+    <t>new address: buenos aires</t>
+  </si>
+  <si>
+    <t>an account</t>
   </si>
 </sst>
 </file>
@@ -645,7 +624,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -843,6 +822,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1163,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753BCD2C-D1E9-43CA-8B7A-EB7A177E68D9}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E1" s="47"/>
     </row>
@@ -1205,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E2" s="48"/>
     </row>
@@ -1214,7 +1196,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="28" t="s">
@@ -1245,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="11" t="s">
@@ -1269,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1283,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
@@ -1297,499 +1279,422 @@
         <v>3</v>
       </c>
       <c r="E8" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="67">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="B12" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+    </row>
+    <row r="14" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="G16" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="45"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>1</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="G17" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="45"/>
+      <c r="M17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="45"/>
+    </row>
+    <row r="18" spans="1:14" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B18" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="G18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>3</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="G19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>4</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="G20" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>5</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="G21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>6</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="35">
-        <v>4</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>3</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="D10" s="35">
-        <v>5</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>4</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="D11" s="35">
-        <v>6</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="35">
-        <v>7</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="35">
-        <v>8</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="35">
-        <v>9</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="35">
-        <v>10</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="36"/>
-      <c r="E17" s="37"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
+      <c r="E22" s="65"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-    </row>
-    <row r="24" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="G26" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="45"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
-        <v>1</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="60"/>
-      <c r="G27" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="45"/>
-      <c r="I27" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" s="45"/>
-    </row>
-    <row r="28" spans="1:14" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
-        <v>2</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="60"/>
-      <c r="G28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="23" t="s">
-        <v>26</v>
-      </c>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="25"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
-        <v>3</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="60"/>
-      <c r="G29" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
-        <v>4</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="60"/>
-      <c r="G30" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
-        <v>5</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="60"/>
-      <c r="G31" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" s="39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>6</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="65"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="25"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="G25:N25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G15:N15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/Casos de prueba/TC-6.xlsx
+++ b/Casos de prueba/TC-6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EDCCE9-E1C0-45D5-8A0F-7DE40B5BF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BFF1F2-EC0B-415B-80DC-BF6607055135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>an account</t>
+  </si>
+  <si>
+    <t>Not As Expected</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -752,13 +758,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -799,33 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1147,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753BCD2C-D1E9-43CA-8B7A-EB7A177E68D9}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,10 +1182,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1186,19 +1195,19 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1292,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
+      <c r="A9" s="44">
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -1300,28 +1309,28 @@
       <c r="A12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="16" t="s">
         <v>15</v>
       </c>
@@ -1333,16 +1342,16 @@
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="53"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
@@ -1356,64 +1365,64 @@
         <v>22</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="43" t="s">
+      <c r="H16" s="53"/>
+      <c r="I16" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="43" t="s">
+      <c r="J16" s="53"/>
+      <c r="K16" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="43" t="s">
+      <c r="L16" s="53"/>
+      <c r="M16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="53"/>
     </row>
     <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>1</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="59" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="G17" s="43" t="s">
+      <c r="E17" s="47"/>
+      <c r="G17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="43" t="s">
+      <c r="H17" s="53"/>
+      <c r="I17" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="61" t="s">
+      <c r="J17" s="54"/>
+      <c r="K17" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="43" t="s">
+      <c r="L17" s="53"/>
+      <c r="M17" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="45"/>
+      <c r="N17" s="53"/>
     </row>
     <row r="18" spans="1:14" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>2</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="59" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="60"/>
+      <c r="E18" s="47"/>
       <c r="G18" s="23" t="s">
         <v>23</v>
       </c>
@@ -1439,26 +1448,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>3</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="59" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="60"/>
+      <c r="E19" s="47"/>
       <c r="G19" s="42" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>11</v>
@@ -1470,32 +1479,32 @@
         <v>11</v>
       </c>
       <c r="M19" s="42" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>4</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="59" t="s">
+      <c r="C20" s="45"/>
+      <c r="D20" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="G20" s="42" t="s">
-        <v>27</v>
+      <c r="E20" s="47"/>
+      <c r="G20" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>27</v>
+        <v>55</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>11</v>
@@ -1506,33 +1515,33 @@
       <c r="L20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="42" t="s">
-        <v>27</v>
+      <c r="M20" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>5</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="59" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="G21" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>27</v>
+      <c r="E21" s="47"/>
+      <c r="G21" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="J21" s="39" t="s">
         <v>40</v>
@@ -1543,25 +1552,25 @@
       <c r="L21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>11</v>
+      <c r="M21" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>6</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="50"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
@@ -1593,8 +1602,8 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
     </row>
@@ -1668,17 +1677,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
@@ -1689,12 +1693,17 @@
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>

--- a/Casos de prueba/TC-6.xlsx
+++ b/Casos de prueba/TC-6.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seba/Documents/GitHub/TestingAplicaciones-FFC-TPO/Casos de prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BFF1F2-EC0B-415B-80DC-BF6607055135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB692CC1-6048-4146-B5FF-1F03F1CD32CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{B9FDB8B2-3DAD-4091-95BA-CDD5EE4AD8A7}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Crear_cuenta.2" sheetId="2" r:id="rId1"/>
+    <sheet name="Report Error" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -204,13 +205,70 @@
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>when you want to save the changes in "edit perfile"</t>
+  </si>
+  <si>
+    <t>Description / Overview</t>
+  </si>
+  <si>
+    <t>saves the changes but not redirect to main menu</t>
+  </si>
+  <si>
+    <t>Reproduction Steps</t>
+  </si>
+  <si>
+    <t>1- Open the application page https://demo.opencart.com/ </t>
+  </si>
+  <si>
+    <t>2- go to "hello sample"</t>
+  </si>
+  <si>
+    <t>3- go to "edit perfile"</t>
+  </si>
+  <si>
+    <t>4- edit the information</t>
+  </si>
+  <si>
+    <t>5- click on "save"</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>a sing with the new information is displayed, return to main manu</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>accept the changes, but stay in the same page</t>
+  </si>
+  <si>
+    <t>Incidence / Severity / Probability of reproduction</t>
+  </si>
+  <si>
+    <t>Story and Acceptance Criteria affected</t>
+  </si>
+  <si>
+    <t>Browsers tested</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +359,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +398,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -630,7 +710,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -764,15 +844,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,61 +916,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{E2B85A74-63EF-4999-8841-C3A521468E5F}"/>
     <cellStyle name="Note 2" xfId="3" xr:uid="{7E18696E-6330-45FD-AAD1-7783A9330B8D}"/>
@@ -858,7 +942,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1156,23 +1240,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753BCD2C-D1E9-43CA-8B7A-EB7A177E68D9}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="N19" sqref="N19:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,12 +1266,12 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="57"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1195,19 +1279,19 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="58"/>
-    </row>
-    <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1304,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1231,7 +1315,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1255,7 +1339,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D6" s="35">
         <v>1</v>
       </c>
@@ -1263,7 +1347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -1291,7 +1375,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <v>2</v>
       </c>
@@ -1301,36 +1385,36 @@
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D10" s="36"/>
       <c r="E10" s="37"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-    </row>
-    <row r="14" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="16" t="s">
         <v>15</v>
       </c>
@@ -1338,22 +1422,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="53"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
+    </row>
+    <row r="16" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>20</v>
       </c>
@@ -1365,64 +1449,64 @@
         <v>22</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="52" t="s">
+      <c r="H16" s="47"/>
+      <c r="I16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="52" t="s">
+      <c r="J16" s="47"/>
+      <c r="K16" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="53"/>
-      <c r="M16" s="52" t="s">
+      <c r="L16" s="47"/>
+      <c r="M16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="53"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="47"/>
+    </row>
+    <row r="17" spans="1:14" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>1</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="46" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="G17" s="52" t="s">
+      <c r="E17" s="62"/>
+      <c r="G17" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="52" t="s">
+      <c r="H17" s="47"/>
+      <c r="I17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="53"/>
-      <c r="M17" s="52" t="s">
+      <c r="L17" s="47"/>
+      <c r="M17" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="53"/>
-    </row>
-    <row r="18" spans="1:14" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="47"/>
+    </row>
+    <row r="18" spans="1:14" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>2</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="46" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="47"/>
+      <c r="E18" s="62"/>
       <c r="G18" s="23" t="s">
         <v>23</v>
       </c>
@@ -1448,18 +1532,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>3</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="46" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="47"/>
+      <c r="E19" s="62"/>
       <c r="G19" s="42" t="s">
         <v>54</v>
       </c>
@@ -1485,18 +1569,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>4</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="47"/>
+      <c r="E20" s="62"/>
       <c r="G20" s="43" t="s">
         <v>54</v>
       </c>
@@ -1522,18 +1606,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>5</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="62"/>
       <c r="G21" s="43" t="s">
         <v>54</v>
       </c>
@@ -1559,18 +1643,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
         <v>6</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="50"/>
+      <c r="E22" s="67"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="41"/>
@@ -1580,7 +1664,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
@@ -1590,7 +1674,7 @@
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -1600,14 +1684,14 @@
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G26" s="25" t="s">
         <v>29</v>
       </c>
@@ -1625,7 +1709,7 @@
       </c>
       <c r="N26" s="25"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
@@ -1635,7 +1719,7 @@
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
@@ -1645,7 +1729,7 @@
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
@@ -1655,7 +1739,7 @@
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G30" s="26"/>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
@@ -1665,7 +1749,7 @@
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
@@ -1677,12 +1761,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
@@ -1693,19 +1782,148 @@
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B26D84-7F35-7C49-921B-F3FCB3909FA1}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="72"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="72"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="72"/>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="72"/>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="72"/>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="72"/>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="72"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="72"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="72"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="72"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="72"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="72"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="72"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>